--- a/Webbsida/Dokumentation/Gant_mall.xlsx
+++ b/Webbsida/Dokumentation/Gant_mall.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkpit14AxWa\Desktop\Projektledare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nkpit14AxWa\Program\Xampp\htdocs\GladRags\Webbsida\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,9 +77,6 @@
     <t>Undersidor</t>
   </si>
   <si>
-    <t>text bilder</t>
-  </si>
-  <si>
     <t>sammanfattning</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Projekt (Gladrags)</t>
+  </si>
+  <si>
+    <t>PhP kod</t>
   </si>
 </sst>
 </file>
@@ -851,8 +851,8 @@
   </sheetPr>
   <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,7 +880,7 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
@@ -922,7 +922,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -940,7 +940,7 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16" t="s">
@@ -980,31 +980,31 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="I9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="K9" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="L9" s="22" t="s">
         <v>10</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="18"/>
@@ -1025,7 +1025,7 @@
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="25"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -1075,12 +1075,12 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1093,15 +1093,15 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="25"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -1111,7 +1111,7 @@
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="21"/>
       <c r="L17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1149,8 +1149,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -1159,7 +1159,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="21"/>
       <c r="L18" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1167,8 +1167,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1177,16 +1177,16 @@
       <c r="J19" s="4"/>
       <c r="K19" s="21"/>
       <c r="L19" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1195,16 +1195,16 @@
       <c r="J20" s="4"/>
       <c r="K20" s="21"/>
       <c r="L20" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1213,7 +1213,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="21"/>
       <c r="L21" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1245,16 +1245,16 @@
       <c r="J23" s="18"/>
       <c r="K23" s="21"/>
       <c r="L23" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
@@ -1279,7 +1279,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="21"/>
       <c r="L25" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
       <c r="J27" s="18"/>
       <c r="K27" s="21"/>
       <c r="L27" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="21"/>
       <c r="L28" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Webbsida/Dokumentation/Gant_mall.xlsx
+++ b/Webbsida/Dokumentation/Gant_mall.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A2:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1151,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1169,7 +1169,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1187,7 +1187,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1205,7 +1205,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1255,7 +1255,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>

--- a/Webbsida/Dokumentation/Gant_mall.xlsx
+++ b/Webbsida/Dokumentation/Gant_mall.xlsx
@@ -851,8 +851,8 @@
   </sheetPr>
   <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1188,7 +1188,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1206,7 +1206,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1256,7 +1256,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
